--- a/cypress/fixtures/CIF_Data.xlsx
+++ b/cypress/fixtures/CIF_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29022"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bu.shafique\Documents\BankUltimus_Automation\cypress\fixtures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\cypress\BankUltimus_Automation\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAC7A7E1-1914-42CF-863F-26467C699AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2988B331-7605-40F5-831E-3CD17065F7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="130">
   <si>
     <t>url</t>
   </si>
@@ -207,15 +207,6 @@
     <t>BANGLADESHI</t>
   </si>
   <si>
-    <t>9595831229011</t>
-  </si>
-  <si>
-    <t>9201854721</t>
-  </si>
-  <si>
-    <t>B00178589</t>
-  </si>
-  <si>
     <t>21/01/2020</t>
   </si>
   <si>
@@ -231,9 +222,6 @@
     <t>DHAKA</t>
   </si>
   <si>
-    <t>78513355646</t>
-  </si>
-  <si>
     <t>11/10/1993</t>
   </si>
   <si>
@@ -261,9 +249,6 @@
     <t>4566978213</t>
   </si>
   <si>
-    <t>01811111112</t>
-  </si>
-  <si>
     <t>Dhamrai</t>
   </si>
   <si>
@@ -424,13 +409,34 @@
   </si>
   <si>
     <t>1502 - Customers Profile [organization]</t>
+  </si>
+  <si>
+    <t>A4010</t>
+  </si>
+  <si>
+    <t>B4010</t>
+  </si>
+  <si>
+    <t>9595833229014</t>
+  </si>
+  <si>
+    <t>9201854443</t>
+  </si>
+  <si>
+    <t>B00178587</t>
+  </si>
+  <si>
+    <t>78513355677</t>
+  </si>
+  <si>
+    <t>01811111133</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -794,20 +800,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -821,12 +827,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -835,12 +841,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>124</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -849,7 +855,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -860,7 +866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -874,7 +880,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -885,6 +891,58 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -893,7 +951,7 @@
     <hyperlink ref="A4" r:id="rId1" xr:uid="{7FC561F1-C075-40A1-A4D8-B1EDDDEBDE2A}"/>
     <hyperlink ref="A2" r:id="rId2" xr:uid="{8634A844-3D70-41F5-9BBB-68B12266DE7D}"/>
     <hyperlink ref="A3" r:id="rId3" xr:uid="{D772CC76-4D4E-4E37-8883-5BD0E6A7B1C2}"/>
-    <hyperlink ref="A5:A6" r:id="rId4" xr:uid="{2FB2E7FD-AED7-413D-A5A5-1D0D80AA73B5}"/>
+    <hyperlink ref="A5:A6" r:id="rId4" display="http://192.168.20.127/UltimusSSO/src/UltimusSSOAPP/UFS.Web/" xr:uid="{2FB2E7FD-AED7-413D-A5A5-1D0D80AA73B5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -907,12 +965,12 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="68.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
@@ -920,7 +978,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -928,7 +986,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -936,7 +994,7 @@
         <v>8002</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -944,7 +1002,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -966,11 +1024,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5813B1-5843-40D8-80A2-E35B896B6A5A}">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AK2" sqref="AK2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="2" bestFit="1" customWidth="1"/>
@@ -1010,7 +1068,7 @@
     <col min="38" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -1123,7 +1181,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>50</v>
       </c>
@@ -1140,100 +1198,100 @@
         <v>54</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="N2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="P2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1245,11 +1303,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2AD0866-9044-4C91-B9CD-070AE2338B25}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="20.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" style="3"/>
@@ -1261,45 +1319,45 @@
     <col min="28" max="16384" width="20.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="17.25" customHeight="1">
+    <row r="1" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>34</v>
@@ -1311,13 +1369,13 @@
         <v>38</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>40</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>42</v>
@@ -1326,7 +1384,7 @@
         <v>43</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="W1" s="4" t="s">
         <v>37</v>
@@ -1335,45 +1393,45 @@
         <v>36</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="AC1" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="AD1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="AF1" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D2" s="3">
         <v>4566237237</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F2" s="3">
         <v>5000000</v>
@@ -1385,76 +1443,76 @@
         <v>756535986</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J2" s="3">
         <v>876406</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="M2" s="3">
         <v>100</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="Q2" s="3">
         <v>1010</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="X2" s="3">
         <v>8801623265</v>
       </c>
       <c r="Y2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD2" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AF2" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1468,25 +1526,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.42578125" style="5" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
